--- a/Data/Exel/PTList.xlsx
+++ b/Data/Exel/PTList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="225">
   <si>
     <t>IDENT</t>
   </si>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,6 +1862,12 @@
       </c>
       <c r="B55" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="C55" s="1">
+        <v>65</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="E55" s="2"/>
     </row>
